--- a/03_Lists/Lecture/WS_List_Functions/WS_ListFunctions.xlsx
+++ b/03_Lists/Lecture/WS_List_Functions/WS_ListFunctions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dk/Dropbox/fhnw/fprog/course/03_Lists/Lecture/WS_ListFunctions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascal.hauser1\Documents\repos\fprog\03_Lists\Lecture\WS_List_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470BCBEC-9558-5149-9894-DDD33359BE04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88C7AF3-D1BC-4B53-9AB0-1791889BC73A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="900" windowWidth="26100" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="12870" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>(++) :: [a] -&gt; [a] -&gt; [a]</t>
   </si>
@@ -102,6 +102,83 @@
   </si>
   <si>
     <t>Verwenden Sie ghci und http://www.haskell.org/hoogle um diese Liste zu vervollständigen.</t>
+  </si>
+  <si>
+    <t>take :: Int -&gt; [a] -&gt; [a]</t>
+  </si>
+  <si>
+    <t>Nimmt einen Integer n und eine Liste und gibt die ersten n Elemente der Liste zurück</t>
+  </si>
+  <si>
+    <t>drop 2 [1,2,3] ~&gt; [3]</t>
+  </si>
+  <si>
+    <t>drop :: Int -&gt; [a] -&gt; [a]</t>
+  </si>
+  <si>
+    <t>[1,2,3,4] !! 2 ~&gt; 3</t>
+  </si>
+  <si>
+    <t>List Index: Nimmt eine Liste und ein Integer n und gibt den Index n der Liste zurück</t>
+  </si>
+  <si>
+    <t>last :: [a] -&gt; a</t>
+  </si>
+  <si>
+    <t>last [1,2,3,4] ~&gt; 4</t>
+  </si>
+  <si>
+    <t>reverse :: [a] -&gt; [a]</t>
+  </si>
+  <si>
+    <t>reverse "Hallo" ~&gt; "ollaH</t>
+  </si>
+  <si>
+    <t>Return all the elements of a list except the last one. The List must be non-empty</t>
+  </si>
+  <si>
+    <t>init :: [a] -&gt; [a]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Does the element occur in the structure?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> elem 2 [1,3,4,5,6] ~&gt; False</t>
+  </si>
+  <si>
+    <t>The largest element of a non-empty structure.</t>
+  </si>
+  <si>
+    <t>sum [1,2,3] ~&gt; 6</t>
+  </si>
+  <si>
+    <t>sum :: Num a =&gt; [a] -&gt; a</t>
+  </si>
+  <si>
+    <t>maximum :: Ord a =&gt; [a] -&gt; a</t>
+  </si>
+  <si>
+    <t>zip' takes two lists and returns a list of corresponding pairs</t>
+  </si>
+  <si>
+    <t>zip [1,2,3] [3,4,5] ~&gt; [(1,3),(2,4),(3,5)]</t>
+  </si>
+  <si>
+    <t>concat :: [[a]] -&gt; [a]</t>
+  </si>
+  <si>
+    <t>Nimt eine Liste von Listen entgegen und returned eine Liste. The concatenation of all the elements of a container of lists.</t>
+  </si>
+  <si>
+    <t>zipWith :: (a -&gt; b -&gt; c) -&gt; [a] -&gt; [b] -&gt; [c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /O(min(m,n))/. 'zipWith' generalises 'zip' by zipping with the function
+ given as the first argument, instead of a tupling function. For example,
+ @'zipWith' (+)@ is applied to two lists to produce the list of corresponding
+ sums:
+ &gt;&gt;&gt; zipWith (+) [1, 2, 3] [4, 5, 6]
+ [5,7,9]</t>
   </si>
 </sst>
 </file>
@@ -294,7 +371,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -337,55 +414,58 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -724,24 +804,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="64.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="64.125" customWidth="1"/>
     <col min="3" max="3" width="181.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="164.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="164.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24">
+    <row r="1" spans="1:3" ht="23.25">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1">
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:3">
@@ -749,7 +829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19">
+    <row r="5" spans="1:3" ht="18.75">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -763,7 +843,7 @@
 Wird entsprechend verwendet um Strings zu konkatenieren.")</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="38">
+    <row r="6" spans="1:3" ht="37.5">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -771,7 +851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="55" customHeight="1">
+    <row r="7" spans="1:3" ht="54.95" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -779,21 +859,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:3" ht="19">
+    <row r="9" spans="1:3" ht="18.75">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B9,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B10,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B11,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("","take 3 ['a','b','c','d','e'] ~&gt; ['a','b','c']","")</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19">
+        <v>("take :: Int -&gt; [a] -&gt; [a]","take 3 ['a','b','c','d','e'] ~&gt; ['a','b','c']","Nimmt einen Integer n und eine Liste und gibt die ersten n Elemente der Liste zurück")</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -801,33 +883,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="55" customHeight="1">
+    <row r="11" spans="1:3" ht="54.95" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:3" ht="19">
+    <row r="13" spans="1:3" ht="18.75">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C13" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B13,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B14,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B15,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("","","Wirft die ersten n Elemente weg.")</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19">
+        <v>("drop :: Int -&gt; [a] -&gt; [a]","drop 2 [1,2,3] ~&gt; [3]","Wirft die ersten n Elemente weg.")</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="55" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="54.95" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -835,11 +923,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="1:3" ht="19">
+    <row r="17" spans="1:3" ht="18.75">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -848,42 +936,50 @@
       </c>
       <c r="C17" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B17,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B18,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B19,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("(!!) :: [a] -&gt; Int -&gt; a","","")</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="19">
+        <v>("(!!) :: [a] -&gt; Int -&gt; a","[1,2,3,4] !! 2 ~&gt; 3","List Index: Nimmt eine Liste und ein Integer n und gibt den Index n der Liste zurück")</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="55" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="54.95" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:3" ht="19">
+    <row r="21" spans="1:3" ht="18.75">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C21" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B21,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B22,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B23,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("","","Gibt das letzte Element zurück. ")</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="19">
+        <v>("last :: [a] -&gt; a","last [1,2,3,4] ~&gt; 4","Gibt das letzte Element zurück. ")</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="55" customHeight="1">
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="54.95" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -895,17 +991,19 @@
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
     </row>
-    <row r="25" spans="1:3" ht="19">
+    <row r="25" spans="1:3" ht="18.75">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C25" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B25,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B26,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B27,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("","init ['a','b','c','d'] ~&gt; ['a','b','c']","")</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20">
+        <v>("init :: [a] -&gt; [a]","init ['a','b','c','d'] ~&gt; ['a','b','c']","Return all the elements of a list except the last one. The List must be non-empty")</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -913,33 +1011,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="55" customHeight="1">
+    <row r="27" spans="1:3" ht="54.95" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1">
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="1:3" ht="19">
+    <row r="29" spans="1:3" ht="18.75">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C29" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B29,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B30,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B31,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("","","Dreht eine Liste um.")</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="19">
+        <v>("reverse :: [a] -&gt; [a]","reverse \"Hallo\" ~&gt; \"ollaH","Dreht eine Liste um.")</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" ht="55" customHeight="1">
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="54.95" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
@@ -947,11 +1051,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1">
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
     </row>
-    <row r="33" spans="1:3" ht="19">
+    <row r="33" spans="1:3" ht="18.75">
       <c r="A33" s="5" t="s">
         <v>10</v>
       </c>
@@ -960,37 +1064,43 @@
       </c>
       <c r="C33" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B33,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B34,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B35,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("elem :: Eq a =&gt; a -&gt; [a] -&gt; Bool","","")</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="19">
+        <v>("elem :: Eq a =&gt; a -&gt; [a] -&gt; Bool"," elem 2 [1,3,4,5,6] ~&gt; False"," Does the element occur in the structure?")</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" ht="55" customHeight="1">
+      <c r="B34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="54.95" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1">
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
     </row>
-    <row r="37" spans="1:3" ht="19">
+    <row r="37" spans="1:3" ht="18.75">
       <c r="A37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C37" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B37,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B38,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B39,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("","maximum [1,4,3] ~&gt; 4
-minimum [1,4,3] ~&gt; 1","")</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="40">
+        <v>("maximum :: Ord a =&gt; [a] -&gt; a","maximum [1,4,3] ~&gt; 4
+minimum [1,4,3] ~&gt; 1","The largest element of a non-empty structure.")</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="37.5">
       <c r="A38" s="5" t="s">
         <v>11</v>
       </c>
@@ -998,34 +1108,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="55" customHeight="1">
+    <row r="39" spans="1:3" ht="54.95" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1">
+      <c r="B39" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
     </row>
-    <row r="41" spans="1:3" ht="19">
+    <row r="41" spans="1:3" ht="18.75">
       <c r="A41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C41" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B41,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B42,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B43,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("","","Gibt die Summe/ das Produkt zurück.
+        <v>("sum :: Num a =&gt; [a] -&gt; a","sum [1,2,3] ~&gt; 6","Gibt die Summe/ das Produkt zurück.
 Die Listenelemente müssen von einem Zahlen Typen sein (Num).")</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="19">
+    <row r="42" spans="1:3" ht="18.75">
       <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" ht="55" customHeight="1">
+      <c r="B42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="54.95" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>12</v>
       </c>
@@ -1033,11 +1149,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="29" customHeight="1">
+    <row r="44" spans="1:3" ht="29.1" customHeight="1">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
     </row>
-    <row r="45" spans="1:3" ht="19">
+    <row r="45" spans="1:3" ht="18.75">
       <c r="A45" s="11" t="s">
         <v>10</v>
       </c>
@@ -1046,37 +1162,43 @@
       </c>
       <c r="C45" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B45,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B46,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B47,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("zip :: [a] -&gt; [b] -&gt; [(a,b)]","","")</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="19">
+        <v>("zip :: [a] -&gt; [b] -&gt; [(a,b)]","zip [1,2,3] [3,4,5] ~&gt; [(1,3),(2,4),(3,5)]","zip' takes two lists and returns a list of corresponding pairs")</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18.75">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" ht="55" customHeight="1">
+      <c r="B46" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="54.95" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1">
+      <c r="B47" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="1:3" ht="19">
+    <row r="49" spans="1:3" ht="18.75">
       <c r="A49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C49" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B49,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B50,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B51,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("","concat [[1],[2,3],[4]] ~&gt; [1,2,3,4]
-concat [\"abc\",\"def\"] ~&gt; \"abcdef\"","")</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="40">
+        <v>("concat :: [[a]] -&gt; [a]","concat [[1],[2,3],[4]] ~&gt; [1,2,3,4]
+concat [\"abc\",\"def\"] ~&gt; \"abcdef\"","Nimt eine Liste von Listen entgegen und returned eine Liste. The concatenation of all the elements of a container of lists.")</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="37.5">
       <c r="A50" s="5" t="s">
         <v>11</v>
       </c>
@@ -1084,28 +1206,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="55" customHeight="1">
+    <row r="51" spans="1:3" ht="54.95" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="10"/>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1">
+      <c r="B51" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="1:3" ht="19">
+    <row r="53" spans="1:3" ht="18.75">
       <c r="A53" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="C53" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B53,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B54,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B55,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("","zipWith (+) [1,2,3] [10,11,12] ~&gt; [11,13,15]
-zipWith (++) [\"Ha\",\"Ec\"] [\"llo\",\"ho\"] ~&gt; [\"Hallo\",\"Echo\"]","")</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="40">
+        <v>("zipWith :: (a -&gt; b -&gt; c) -&gt; [a] -&gt; [b] -&gt; [c]","zipWith (+) [1,2,3] [10,11,12] ~&gt; [11,13,15]
+zipWith (++) [\"Ha\",\"Ec\"] [\"llo\",\"ho\"] ~&gt; [\"Hallo\",\"Echo\"]"," /O(min(m,n))/. 'zipWith' generalises 'zip' by zipping with the function
+ given as the first argument, instead of a tupling function. For example,
+ @'zipWith' (+)@ is applied to two lists to produce the list of corresponding
+ sums:
+ &gt;&gt;&gt; zipWith (+) [1, 2, 3] [4, 5, 6]
+ [5,7,9]")</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="37.5">
       <c r="A54" s="5" t="s">
         <v>11</v>
       </c>
@@ -1113,31 +1244,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="55" customHeight="1">
+    <row r="55" spans="1:3" ht="194.25" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:3" ht="19">
+      <c r="B55" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18.75">
       <c r="A56" s="8"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:3" ht="19">
+    <row r="57" spans="1:3" ht="18.75">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
     </row>
-    <row r="58" spans="1:3" ht="19">
+    <row r="58" spans="1:3" ht="18.75">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
     </row>
-    <row r="59" spans="1:3" ht="19">
+    <row r="59" spans="1:3" ht="18.75">
       <c r="A59" s="6"/>
       <c r="B59" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/03_Lists/Lecture/WS_List_Functions/WS_ListFunctions.xlsx
+++ b/03_Lists/Lecture/WS_List_Functions/WS_ListFunctions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascal.hauser1\Documents\repos\fprog\03_Lists\Lecture\WS_List_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88C7AF3-D1BC-4B53-9AB0-1791889BC73A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1519396-0BCF-4709-8694-E878D34A940D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="12870" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38700" yWindow="30" windowWidth="12870" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
